--- a/biology/Botanique/Morelle_faux_jasmin/Morelle_faux_jasmin.xlsx
+++ b/biology/Botanique/Morelle_faux_jasmin/Morelle_faux_jasmin.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Solanum laxum
 La morelle faux jasmin (Solanum laxum, historiquement connue comme Solanum jasminoïdes) est une plante grimpante sarmenteuse, de la famille des Solanacées, originaire d'Amérique du Sud.
@@ -514,7 +526,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette plante grimpante, inerme (sans épines), se développe très rapidement. Elle forme des rameaux de 2 à 8 m de long portant un feuillage semi-persistant à persistant suivant le climat.
 Les feuilles sont simples, ovales-lancéolées, de 3-8 × 1,5-3 cm, glabres.
@@ -551,7 +565,9 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La Morelle faux jasmin est originaire d'Amérique du Sud (Brésil, Argentine, Équateur, Paraguay, Uruguay).
 </t>
@@ -582,10 +598,12 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette liane à floraison généreuse est utilisée dans les jardins pour couvrir les treillages ou les pergolas.  Sa croissante rapide en fait une plante rapidement envahissante. Elle se cultive facilement en extérieur dans les régions tempérées à climat doux. Elle supporte -8 °C. On la multiplie par bouturage en été. Les fruits sont toxiques.
-2n=24[1].
+2n=24.
 </t>
         </is>
       </c>
@@ -614,7 +632,9 @@
           <t>Synonymie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Solanum boerhaaviifolium Sendt.
 Solanum boerhaaviifolium var. calvum C.V.Morton
